--- a/basic/crud_whseet/sample.xlsx
+++ b/basic/crud_whseet/sample.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\open_py_xl\basic\crud_whseet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A051C72-6814-4AFE-84DF-D6A89C31A7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="23265" windowHeight="15735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
-    <sheet name="Hasil" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>GAJI</t>
   </si>
@@ -163,247 +144,19 @@
   </si>
   <si>
     <t>BCA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DESIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,30 +167,360 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -460,11 +543,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -488,29 +813,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FEF4ABD9-45CA-4C8E-8258-FC6369ECC653}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,12 +1164,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -810,19 +1178,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" style="2" customWidth="1"/>
+    <col min="7" max="16" width="9.14285714285714" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
       <c r="A2" s="5">
         <v>912071</v>
       </c>
@@ -862,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="7">
         <v>448872</v>
@@ -880,7 +1248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1" spans="1:6">
       <c r="A4" s="7">
         <v>495605.67</v>
       </c>
@@ -900,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1" spans="1:6">
       <c r="A5" s="7">
         <v>799464</v>
       </c>
@@ -911,7 +1279,7 @@
         <v>1013881</v>
       </c>
       <c r="D5" s="7">
-        <v>159892.79999999999</v>
+        <v>159892.8</v>
       </c>
       <c r="E5" s="5">
         <v>853988.2</v>
@@ -920,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1" spans="1:5">
       <c r="A6" s="7">
         <v>64929</v>
       </c>
@@ -937,7 +1305,7 @@
         <v>376913.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1" spans="1:5">
       <c r="A7" s="7">
         <v>959847</v>
       </c>
@@ -954,7 +1322,7 @@
         <v>911990.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1" spans="1:6">
       <c r="A8" s="7">
         <v>805001</v>
       </c>
@@ -965,7 +1333,7 @@
         <v>1219397</v>
       </c>
       <c r="D8" s="7">
-        <v>161000.20000000001</v>
+        <v>161000.2</v>
       </c>
       <c r="E8" s="5">
         <v>1058396.8</v>
@@ -974,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1" spans="1:5">
       <c r="A9" s="7">
         <v>923363</v>
       </c>
@@ -991,7 +1359,7 @@
         <v>1009744.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1" spans="1:6">
       <c r="A10" s="7">
         <v>282580</v>
       </c>
@@ -1007,11 +1375,11 @@
       <c r="E10" s="5">
         <v>395527</v>
       </c>
-      <c r="F10" s="13">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1">
+      <c r="F10" s="9">
+        <v>-0.56</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:5">
       <c r="A11" s="7">
         <v>96122</v>
       </c>
@@ -1022,13 +1390,13 @@
         <v>586753</v>
       </c>
       <c r="D11" s="7">
-        <v>19224.400000000001</v>
+        <v>19224.4</v>
       </c>
       <c r="E11" s="5">
         <v>567528.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1" spans="1:6">
       <c r="A12" s="7">
         <v>798094</v>
       </c>
@@ -1039,7 +1407,7 @@
         <v>1119856</v>
       </c>
       <c r="D12" s="7">
-        <v>159618.79999999999</v>
+        <v>159618.8</v>
       </c>
       <c r="E12" s="5">
         <v>960237.2</v>
@@ -1048,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1" spans="1:5">
       <c r="A13" s="7">
         <v>200222</v>
       </c>
@@ -1059,13 +1427,13 @@
         <v>674466</v>
       </c>
       <c r="D13" s="7">
-        <v>40044.400000000001</v>
+        <v>40044.4</v>
       </c>
       <c r="E13" s="5">
         <v>634421.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1" spans="1:6">
       <c r="A14" s="7">
         <v>65407</v>
       </c>
@@ -1085,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1" spans="1:6">
       <c r="A15" s="7">
         <v>686073</v>
       </c>
@@ -1105,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1" spans="1:6">
       <c r="A16" s="5">
         <v>16216</v>
       </c>
@@ -1119,13 +1487,13 @@
         <v>3243.2</v>
       </c>
       <c r="E16" s="5">
-        <v>132147.79999999999</v>
+        <v>132147.8</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1" spans="1:6">
       <c r="A17" s="7">
         <v>875325</v>
       </c>
@@ -1145,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1" spans="1:6">
       <c r="A18" s="7">
         <v>465591</v>
       </c>
@@ -1165,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1" spans="1:6">
       <c r="A19" s="7">
         <v>576575</v>
       </c>
@@ -1183,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1">
+    <row r="20" ht="19.5" customHeight="1" spans="1:6">
       <c r="A20" s="7">
         <v>163642</v>
       </c>
@@ -1194,7 +1562,7 @@
         <v>-110855</v>
       </c>
       <c r="D20" s="7">
-        <v>32728.400000000001</v>
+        <v>32728.4</v>
       </c>
       <c r="E20" s="5">
         <v>-143583.4</v>
@@ -1203,7 +1571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1">
+    <row r="21" ht="19.5" customHeight="1" spans="1:6">
       <c r="A21" s="7">
         <v>925970</v>
       </c>
@@ -1223,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1" spans="1:6">
       <c r="A22" s="7">
         <v>959847</v>
       </c>
@@ -1243,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1">
+    <row r="23" ht="19.5" customHeight="1" spans="1:6">
       <c r="A23" s="7">
         <v>138130</v>
       </c>
@@ -1263,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1">
+    <row r="24" ht="19.5" customHeight="1" spans="1:5">
       <c r="A24" s="7">
         <v>678319</v>
       </c>
@@ -1274,14 +1642,14 @@
         <v>678319</v>
       </c>
       <c r="D24" s="7">
-        <v>135663.79999999999</v>
+        <v>135663.8</v>
       </c>
       <c r="E24" s="5">
-        <v>542655.19999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A25" s="10" t="s">
+        <v>542655.2</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="7">
@@ -1294,13 +1662,13 @@
         <v>14804.2</v>
       </c>
       <c r="E25" s="5">
-        <v>91748.800000000003</v>
-      </c>
-      <c r="F25" s="11" t="s">
+        <v>91748.8</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1">
+    <row r="26" ht="19.5" customHeight="1" spans="1:6">
       <c r="A26" s="7">
         <v>388249</v>
       </c>
@@ -1316,11 +1684,11 @@
       <c r="E26" s="5">
         <v>372372.2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>333356</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1">
+    <row r="27" ht="19.5" customHeight="1" spans="1:6">
       <c r="A27" s="7">
         <v>492184</v>
       </c>
@@ -1331,16 +1699,16 @@
         <v>492184</v>
       </c>
       <c r="D27" s="7">
-        <v>98436.800000000003</v>
+        <v>98436.8</v>
       </c>
       <c r="E27" s="5">
-        <v>393747.20000000001</v>
-      </c>
-      <c r="F27" s="12" t="s">
+        <v>393747.2</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1">
+    <row r="28" ht="19.5" customHeight="1" spans="1:6">
       <c r="A28" s="7">
         <v>611450</v>
       </c>
@@ -1356,12 +1724,12 @@
       <c r="E28" s="5">
         <v>959200</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="10">
         <v>8118989234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A29" s="10" t="s">
+    <row r="29" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="7">
@@ -1380,7 +1748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1">
+    <row r="30" ht="19.5" customHeight="1" spans="1:6">
       <c r="A30" s="7">
         <v>967422</v>
       </c>
@@ -1394,13 +1762,13 @@
         <v>193484.4</v>
       </c>
       <c r="E30" s="5">
-        <v>1140911.6000000001</v>
+        <v>1140911.6</v>
       </c>
       <c r="F30" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1">
+    <row r="31" ht="19.5" customHeight="1" spans="1:6">
       <c r="A31" s="7">
         <v>889385</v>
       </c>
@@ -1420,7 +1788,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1">
+    <row r="32" ht="19.5" customHeight="1" spans="1:6">
       <c r="A32" s="7">
         <v>0</v>
       </c>
@@ -1440,7 +1808,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1">
+    <row r="33" ht="19.5" customHeight="1" spans="1:6">
       <c r="A33" s="7">
         <v>326224</v>
       </c>
@@ -1451,16 +1819,16 @@
         <v>694448</v>
       </c>
       <c r="D33" s="7">
-        <v>65244.800000000003</v>
+        <v>65244.8</v>
       </c>
       <c r="E33" s="5">
-        <v>629203.19999999995</v>
+        <v>629203.2</v>
       </c>
       <c r="F33" s="2" t="e">
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1">
+    <row r="34" ht="19.5" customHeight="1" spans="1:6">
       <c r="A34" s="7">
         <v>519767</v>
       </c>
@@ -1480,7 +1848,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1">
+    <row r="35" ht="19.5" customHeight="1" spans="1:6">
       <c r="A35" s="7">
         <v>595232</v>
       </c>
@@ -1491,7 +1859,7 @@
         <v>759147</v>
       </c>
       <c r="D35" s="7">
-        <v>119046.39999999999</v>
+        <v>119046.4</v>
       </c>
       <c r="E35" s="5">
         <v>640100.6</v>
@@ -1500,7 +1868,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1">
+    <row r="36" ht="19.5" customHeight="1" spans="1:6">
       <c r="A36" s="7">
         <v>350758</v>
       </c>
@@ -1511,7 +1879,7 @@
         <v>518954</v>
       </c>
       <c r="D36" s="7">
-        <v>70151.600000000006</v>
+        <v>70151.6</v>
       </c>
       <c r="E36" s="5">
         <v>448802.4</v>
@@ -1520,7 +1888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1">
+    <row r="37" ht="19.5" customHeight="1" spans="1:6">
       <c r="A37" s="7">
         <v>800974</v>
       </c>
@@ -1538,7 +1906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1">
+    <row r="38" ht="19.5" customHeight="1" spans="1:6">
       <c r="A38" s="7">
         <v>768575</v>
       </c>
@@ -1558,7 +1926,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1">
+    <row r="39" ht="19.5" customHeight="1" spans="1:6">
       <c r="A39" s="7">
         <v>993511</v>
       </c>
@@ -1578,7 +1946,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1">
+    <row r="40" ht="19.5" customHeight="1" spans="1:6">
       <c r="A40" s="7">
         <v>394973</v>
       </c>
@@ -1589,7 +1957,7 @@
         <v>780936</v>
       </c>
       <c r="D40" s="7">
-        <v>78994.600000000006</v>
+        <v>78994.6</v>
       </c>
       <c r="E40" s="5">
         <v>701941.4</v>
@@ -1598,7 +1966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1">
+    <row r="41" ht="19.5" customHeight="1" spans="1:6">
       <c r="A41" s="7">
         <v>692671</v>
       </c>
@@ -1609,7 +1977,7 @@
         <v>893477</v>
       </c>
       <c r="D41" s="7">
-        <v>138534.20000000001</v>
+        <v>138534.2</v>
       </c>
       <c r="E41" s="5">
         <v>754942.8</v>
@@ -1618,7 +1986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1">
+    <row r="42" ht="19.5" customHeight="1" spans="1:6">
       <c r="A42" s="7">
         <v>799107</v>
       </c>
@@ -1638,7 +2006,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1">
+    <row r="43" ht="19.5" customHeight="1" spans="1:5">
       <c r="A43" s="7">
         <v>959847</v>
       </c>
@@ -1655,7 +2023,7 @@
         <v>911990.6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19.5" customHeight="1">
+    <row r="44" ht="19.5" customHeight="1" spans="1:5">
       <c r="A44" s="7">
         <v>990429</v>
       </c>
@@ -1672,7 +2040,7 @@
         <v>907038.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19.5" customHeight="1">
+    <row r="45" ht="19.5" customHeight="1" spans="1:6">
       <c r="A45" s="7">
         <v>-11011</v>
       </c>
@@ -1683,17 +2051,17 @@
         <v>163241</v>
       </c>
       <c r="D45" s="7">
-        <v>2202.1999999999998</v>
+        <v>2202.2</v>
       </c>
       <c r="E45" s="5">
-        <v>161038.79999999999</v>
+        <v>161038.8</v>
       </c>
       <c r="F45" s="2" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19.5" customHeight="1">
+    <row r="46" ht="19.5" customHeight="1" spans="1:5">
       <c r="A46" s="7">
         <v>334146</v>
       </c>
@@ -1707,35 +2075,36 @@
         <v>66829.2</v>
       </c>
       <c r="E46" s="5">
-        <v>482924.79999999999</v>
+        <v>482924.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
+    <col min="4" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1755,7 +2124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
       <c r="A2">
         <v>9056</v>
       </c>
@@ -1772,7 +2141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1" spans="1:6">
       <c r="A3">
         <v>7928</v>
       </c>
@@ -1792,7 +2161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1" spans="1:6">
       <c r="A4">
         <v>6286</v>
       </c>
@@ -1812,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1" spans="1:6">
       <c r="A5">
         <v>2536</v>
       </c>
@@ -1832,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1" spans="2:6">
       <c r="B6">
         <v>6654803</v>
       </c>
@@ -1849,7 +2218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1" spans="1:6">
       <c r="A7">
         <v>6029</v>
       </c>
@@ -1866,7 +2235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1" spans="1:6">
       <c r="A8">
         <v>3988</v>
       </c>
@@ -1886,7 +2255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1" spans="1:6">
       <c r="A9">
         <v>2682</v>
       </c>
@@ -1906,7 +2275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1" spans="1:6">
       <c r="A10">
         <v>8529</v>
       </c>
@@ -1926,7 +2295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1" spans="1:6">
       <c r="A11">
         <v>1376</v>
       </c>
@@ -1946,7 +2315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1" spans="1:6">
       <c r="A12">
         <v>1295</v>
       </c>
@@ -1966,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1" spans="1:6">
       <c r="A13">
         <v>8845</v>
       </c>
@@ -1986,7 +2355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1" spans="1:6">
       <c r="A14">
         <v>2767</v>
       </c>
@@ -2006,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1" spans="1:6">
       <c r="A15">
         <v>2909</v>
       </c>
@@ -2026,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1" spans="1:6">
       <c r="A16">
         <v>5666</v>
       </c>
@@ -2046,7 +2415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1" spans="1:6">
       <c r="A17">
         <v>6418</v>
       </c>
@@ -2063,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1" spans="1:6">
       <c r="A18">
         <v>4836</v>
       </c>
@@ -2080,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1" spans="1:6">
       <c r="A19">
         <v>8495</v>
       </c>
@@ -2100,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1">
+    <row r="20" ht="19.5" customHeight="1" spans="1:6">
       <c r="A20">
         <v>4843</v>
       </c>
@@ -2120,7 +2489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1">
+    <row r="21" ht="19.5" customHeight="1" spans="1:6">
       <c r="A21">
         <v>3520</v>
       </c>
@@ -2140,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1" spans="1:6">
       <c r="A22">
         <v>9629</v>
       </c>
@@ -2160,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1">
+    <row r="23" ht="19.5" customHeight="1" spans="1:6">
       <c r="A23">
         <v>5590</v>
       </c>
@@ -2180,7 +2549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1">
+    <row r="24" ht="19.5" customHeight="1" spans="1:6">
       <c r="A24">
         <v>5055</v>
       </c>
@@ -2200,7 +2569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    <row r="25" ht="18.75" customHeight="1" spans="1:6">
       <c r="A25">
         <v>8751</v>
       </c>
@@ -2217,7 +2586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" ht="18.75" customHeight="1" spans="1:6">
       <c r="A26">
         <v>5614</v>
       </c>
@@ -2237,7 +2606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1">
+    <row r="27" ht="18.75" customHeight="1" spans="1:6">
       <c r="A27">
         <v>6467</v>
       </c>
@@ -2254,7 +2623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+    <row r="28" ht="18.75" customHeight="1" spans="1:6">
       <c r="A28">
         <v>2779</v>
       </c>
@@ -2274,7 +2643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1">
+    <row r="29" ht="18.75" customHeight="1" spans="1:6">
       <c r="A29">
         <v>5122</v>
       </c>
@@ -2294,7 +2663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1">
+    <row r="30" ht="18.75" customHeight="1" spans="1:6">
       <c r="A30">
         <v>9952</v>
       </c>
@@ -2314,7 +2683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1">
+    <row r="31" ht="18.75" customHeight="1" spans="1:6">
       <c r="A31">
         <v>7399</v>
       </c>
@@ -2334,7 +2703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1">
+    <row r="32" ht="18.75" customHeight="1" spans="1:6">
       <c r="A32">
         <v>7717</v>
       </c>
@@ -2354,7 +2723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1">
+    <row r="33" ht="18.75" customHeight="1" spans="2:6">
       <c r="B33">
         <v>5423004</v>
       </c>
@@ -2371,7 +2740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1">
+    <row r="34" ht="18.75" customHeight="1" spans="1:6">
       <c r="A34">
         <v>9277</v>
       </c>
@@ -2391,7 +2760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1">
+    <row r="35" ht="18.75" customHeight="1" spans="1:6">
       <c r="A35">
         <v>3339</v>
       </c>
@@ -2411,7 +2780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1">
+    <row r="36" ht="18.75" customHeight="1" spans="1:6">
       <c r="A36">
         <v>2779</v>
       </c>
@@ -2428,7 +2797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1">
+    <row r="37" ht="18.75" customHeight="1" spans="1:6">
       <c r="A37">
         <v>1827</v>
       </c>
@@ -2448,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1">
+    <row r="38" ht="18.75" customHeight="1" spans="1:6">
       <c r="A38">
         <v>1208</v>
       </c>
@@ -2468,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1">
+    <row r="39" ht="18.75" customHeight="1" spans="1:6">
       <c r="A39">
         <v>7052</v>
       </c>
@@ -2488,7 +2857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1">
+    <row r="40" ht="18.75" customHeight="1" spans="1:6">
       <c r="A40">
         <v>6091</v>
       </c>
@@ -2508,7 +2877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1">
+    <row r="41" ht="18.75" customHeight="1" spans="1:6">
       <c r="A41">
         <v>2159</v>
       </c>
@@ -2528,7 +2897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1">
+    <row r="42" ht="18.75" customHeight="1" spans="1:6">
       <c r="A42">
         <v>5083</v>
       </c>
@@ -2548,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1">
+    <row r="43" ht="18.75" customHeight="1" spans="1:6">
       <c r="A43">
         <v>4635</v>
       </c>
@@ -2568,7 +2937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1">
+    <row r="44" ht="18.75" customHeight="1" spans="1:6">
       <c r="A44">
         <v>2791</v>
       </c>
@@ -2588,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1">
+    <row r="45" ht="18.75" customHeight="1" spans="1:6">
       <c r="A45">
         <v>3574</v>
       </c>
@@ -2605,7 +2974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1">
+    <row r="46" ht="18.75" customHeight="1" spans="1:6">
       <c r="A46">
         <v>9906</v>
       </c>
@@ -2627,861 +2996,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:D76"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>182414.2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>1079658.8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>495605.67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>983776.67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>884655.67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>159892.79999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>853988.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <v>12985.8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>376913.2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>191969.4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>911990.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>161000.20000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14">
-        <v>1058396.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15">
-        <v>184672.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>1009744.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>19224.400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20">
-        <v>567528.6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21">
-        <v>159618.79999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <v>960237.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23">
-        <v>40044.400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24">
-        <v>634421.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>13081.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26">
-        <v>94467.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27">
-        <v>137214.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28">
-        <v>976023.4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29">
-        <v>3243.2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>132147.79999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31">
-        <v>43023.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32">
-        <v>508614.15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33">
-        <v>93118.2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>415495.95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>32728.400000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36">
-        <v>-143583.4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37">
-        <v>191969.4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38">
-        <v>911990.6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39">
-        <v>135663.79999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40">
-        <v>542655.19999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41">
-        <v>14804.2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42">
-        <v>91748.800000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43">
-        <v>77649.8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44">
-        <v>372372.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45">
-        <v>98436.800000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46">
-        <v>393747.20000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47">
-        <v>194413.6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48">
-        <v>115560.4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49">
-        <v>193484.4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50">
-        <v>1140911.6000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51">
-        <v>78457.2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52">
-        <v>14351.8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53">
-        <v>65244.800000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54">
-        <v>629203.19999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55">
-        <v>103953.4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56">
-        <v>722431.6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57">
-        <v>119046.39999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58">
-        <v>640100.6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59">
-        <v>70151.600000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60">
-        <v>448802.4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61">
-        <v>198702.2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62">
-        <v>1048222.8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63">
-        <v>78994.600000000006</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64">
-        <v>701941.4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65">
-        <v>138534.20000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66">
-        <v>754942.8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67">
-        <v>159821.4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68">
-        <v>799302.6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69">
-        <v>191969.4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70">
-        <v>911990.6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71">
-        <v>198085.8</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72">
-        <v>907038.2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73">
-        <v>2202.1999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74">
-        <v>161038.79999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75">
-        <v>66829.2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76">
-        <v>482924.79999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>